--- a/outputs/train-p__Methanobacteriota.xlsx
+++ b/outputs/train-p__Methanobacteriota.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="167">
   <si>
     <t>Row</t>
   </si>
@@ -549,7 +549,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -587,11 +587,31 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -623,6 +643,26 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,27 +684,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="41" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="41" t="s">
         <v>71</v>
       </c>
       <c r="B2">
@@ -684,7 +724,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="41" t="s">
         <v>72</v>
       </c>
       <c r="B3">
@@ -704,7 +744,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="41" t="s">
         <v>73</v>
       </c>
       <c r="B4">
@@ -724,7 +764,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="41" t="s">
         <v>74</v>
       </c>
       <c r="B5">
@@ -744,7 +784,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="41" t="s">
         <v>75</v>
       </c>
       <c r="B6">
@@ -764,7 +804,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="41" t="s">
         <v>76</v>
       </c>
       <c r="B7">
@@ -784,7 +824,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="41" t="s">
         <v>77</v>
       </c>
       <c r="B8">
@@ -804,7 +844,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="41" t="s">
         <v>78</v>
       </c>
       <c r="B9">
@@ -824,7 +864,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="41" t="s">
         <v>79</v>
       </c>
       <c r="B10">
@@ -844,7 +884,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B11">
@@ -864,7 +904,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="41" t="s">
         <v>81</v>
       </c>
       <c r="B12">
@@ -884,7 +924,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="41" t="s">
         <v>82</v>
       </c>
       <c r="B13">
@@ -904,7 +944,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="41" t="s">
         <v>83</v>
       </c>
       <c r="B14">
@@ -924,7 +964,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="41" t="s">
         <v>84</v>
       </c>
       <c r="B15">
@@ -944,7 +984,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="41" t="s">
         <v>85</v>
       </c>
       <c r="B16">
@@ -964,7 +1004,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="41" t="s">
         <v>86</v>
       </c>
       <c r="B17">
@@ -984,7 +1024,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B18">
@@ -1004,7 +1044,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B19">
@@ -1024,7 +1064,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B20">
@@ -1044,7 +1084,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="41" t="s">
         <v>90</v>
       </c>
       <c r="B21">
@@ -1064,7 +1104,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B22">
@@ -1084,7 +1124,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="41" t="s">
         <v>92</v>
       </c>
       <c r="B23">
@@ -1104,7 +1144,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="41" t="s">
         <v>93</v>
       </c>
       <c r="B24">
@@ -1124,7 +1164,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="41" t="s">
         <v>94</v>
       </c>
       <c r="B25">
@@ -1144,7 +1184,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="41" t="s">
         <v>95</v>
       </c>
       <c r="B26">
@@ -1164,7 +1204,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="41" t="s">
         <v>96</v>
       </c>
       <c r="B27">
@@ -1184,7 +1224,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="41" t="s">
         <v>97</v>
       </c>
       <c r="B28">
@@ -1204,7 +1244,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="41" t="s">
         <v>98</v>
       </c>
       <c r="B29">
@@ -1224,7 +1264,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="41" t="s">
         <v>99</v>
       </c>
       <c r="B30">
@@ -1244,7 +1284,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="41" t="s">
         <v>100</v>
       </c>
       <c r="B31">
@@ -1264,7 +1304,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="41" t="s">
         <v>101</v>
       </c>
       <c r="B32">
@@ -1284,7 +1324,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="41" t="s">
         <v>102</v>
       </c>
       <c r="B33">
@@ -1998,27 +2038,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="43" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="43" t="s">
         <v>103</v>
       </c>
       <c r="B2">
@@ -2038,7 +2078,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="43" t="s">
         <v>104</v>
       </c>
       <c r="B3">
@@ -2058,7 +2098,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="43" t="s">
         <v>105</v>
       </c>
       <c r="B4">
@@ -2078,7 +2118,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="43" t="s">
         <v>106</v>
       </c>
       <c r="B5">
@@ -2098,7 +2138,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="43" t="s">
         <v>107</v>
       </c>
       <c r="B6">
@@ -2118,7 +2158,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="43" t="s">
         <v>108</v>
       </c>
       <c r="B7">
@@ -2138,7 +2178,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="43" t="s">
         <v>109</v>
       </c>
       <c r="B8">
@@ -2158,7 +2198,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="43" t="s">
         <v>110</v>
       </c>
       <c r="B9">
@@ -2178,7 +2218,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="43" t="s">
         <v>111</v>
       </c>
       <c r="B10">
@@ -2198,7 +2238,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B11">
@@ -2218,7 +2258,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="43" t="s">
         <v>113</v>
       </c>
       <c r="B12">
@@ -2238,7 +2278,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="43" t="s">
         <v>114</v>
       </c>
       <c r="B13">
@@ -2258,7 +2298,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="43" t="s">
         <v>115</v>
       </c>
       <c r="B14">
@@ -2278,7 +2318,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B15">
@@ -2298,7 +2338,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B16">
@@ -2318,7 +2358,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="43" t="s">
         <v>118</v>
       </c>
       <c r="B17">
@@ -2338,7 +2378,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B18">
@@ -2358,7 +2398,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B19">
@@ -2378,7 +2418,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B20">
@@ -2398,7 +2438,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B21">
@@ -2418,7 +2458,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B22">
@@ -2438,7 +2478,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="43" t="s">
         <v>124</v>
       </c>
       <c r="B23">
@@ -2458,7 +2498,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B24">
@@ -2478,7 +2518,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B25">
@@ -2498,7 +2538,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B26">
@@ -2518,7 +2558,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="43" t="s">
         <v>128</v>
       </c>
       <c r="B27">
@@ -2538,7 +2578,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="43" t="s">
         <v>129</v>
       </c>
       <c r="B28">
@@ -2558,7 +2598,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B29">
@@ -2578,7 +2618,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="43" t="s">
         <v>131</v>
       </c>
       <c r="B30">
@@ -2598,7 +2638,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="43" t="s">
         <v>132</v>
       </c>
       <c r="B31">
@@ -2618,7 +2658,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="43" t="s">
         <v>133</v>
       </c>
       <c r="B32">
@@ -2638,7 +2678,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="43" t="s">
         <v>134</v>
       </c>
       <c r="B33">
@@ -2675,27 +2715,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="45" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="45" t="s">
         <v>103</v>
       </c>
       <c r="B2">
@@ -2715,7 +2755,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="45" t="s">
         <v>104</v>
       </c>
       <c r="B3">
@@ -2735,7 +2775,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="45" t="s">
         <v>105</v>
       </c>
       <c r="B4">
@@ -2755,7 +2795,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="45" t="s">
         <v>106</v>
       </c>
       <c r="B5">
@@ -2775,7 +2815,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="45" t="s">
         <v>107</v>
       </c>
       <c r="B6">
@@ -2795,7 +2835,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="45" t="s">
         <v>108</v>
       </c>
       <c r="B7">
@@ -2815,7 +2855,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="45" t="s">
         <v>109</v>
       </c>
       <c r="B8">
@@ -2835,7 +2875,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="45" t="s">
         <v>110</v>
       </c>
       <c r="B9">
@@ -2855,7 +2895,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="45" t="s">
         <v>111</v>
       </c>
       <c r="B10">
@@ -2875,7 +2915,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="45" t="s">
         <v>112</v>
       </c>
       <c r="B11">
@@ -2895,7 +2935,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="45" t="s">
         <v>113</v>
       </c>
       <c r="B12">
@@ -2915,7 +2955,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="45" t="s">
         <v>114</v>
       </c>
       <c r="B13">
@@ -2935,7 +2975,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="45" t="s">
         <v>115</v>
       </c>
       <c r="B14">
@@ -2955,7 +2995,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="45" t="s">
         <v>116</v>
       </c>
       <c r="B15">
@@ -2975,7 +3015,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="45" t="s">
         <v>117</v>
       </c>
       <c r="B16">
@@ -2995,7 +3035,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="45" t="s">
         <v>118</v>
       </c>
       <c r="B17">
@@ -3015,7 +3055,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="45" t="s">
         <v>119</v>
       </c>
       <c r="B18">
@@ -3035,7 +3075,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="45" t="s">
         <v>120</v>
       </c>
       <c r="B19">
@@ -3055,7 +3095,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="45" t="s">
         <v>121</v>
       </c>
       <c r="B20">
@@ -3075,7 +3115,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="45" t="s">
         <v>122</v>
       </c>
       <c r="B21">
@@ -3095,7 +3135,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="45" t="s">
         <v>123</v>
       </c>
       <c r="B22">
@@ -3115,7 +3155,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="45" t="s">
         <v>124</v>
       </c>
       <c r="B23">
@@ -3135,7 +3175,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="45" t="s">
         <v>125</v>
       </c>
       <c r="B24">
@@ -3155,7 +3195,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="45" t="s">
         <v>126</v>
       </c>
       <c r="B25">
@@ -3175,7 +3215,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="45" t="s">
         <v>127</v>
       </c>
       <c r="B26">
@@ -3195,7 +3235,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="45" t="s">
         <v>128</v>
       </c>
       <c r="B27">
@@ -3215,7 +3255,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="45" t="s">
         <v>129</v>
       </c>
       <c r="B28">
@@ -3235,7 +3275,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="45" t="s">
         <v>130</v>
       </c>
       <c r="B29">
@@ -3255,7 +3295,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="45" t="s">
         <v>131</v>
       </c>
       <c r="B30">
@@ -3275,7 +3315,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="45" t="s">
         <v>132</v>
       </c>
       <c r="B31">
@@ -3295,7 +3335,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="45" t="s">
         <v>133</v>
       </c>
       <c r="B32">
@@ -3315,7 +3355,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="45" t="s">
         <v>134</v>
       </c>
       <c r="B33">
@@ -4029,27 +4069,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="47" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="47" t="s">
         <v>135</v>
       </c>
       <c r="B2">
@@ -4069,7 +4109,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="B3">
@@ -4089,7 +4129,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="47" t="s">
         <v>137</v>
       </c>
       <c r="B4">
@@ -4109,7 +4149,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="47" t="s">
         <v>138</v>
       </c>
       <c r="B5">
@@ -4129,7 +4169,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="47" t="s">
         <v>139</v>
       </c>
       <c r="B6">
@@ -4149,7 +4189,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="47" t="s">
         <v>140</v>
       </c>
       <c r="B7">
@@ -4169,7 +4209,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="47" t="s">
         <v>141</v>
       </c>
       <c r="B8">
@@ -4189,7 +4229,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="47" t="s">
         <v>142</v>
       </c>
       <c r="B9">
@@ -4209,7 +4249,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="47" t="s">
         <v>143</v>
       </c>
       <c r="B10">
@@ -4229,7 +4269,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="47" t="s">
         <v>144</v>
       </c>
       <c r="B11">
@@ -4249,7 +4289,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="47" t="s">
         <v>145</v>
       </c>
       <c r="B12">
@@ -4269,7 +4309,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="47" t="s">
         <v>146</v>
       </c>
       <c r="B13">
@@ -4289,7 +4329,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="47" t="s">
         <v>147</v>
       </c>
       <c r="B14">
@@ -4309,7 +4349,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="47" t="s">
         <v>148</v>
       </c>
       <c r="B15">
@@ -4329,7 +4369,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="47" t="s">
         <v>149</v>
       </c>
       <c r="B16">
@@ -4349,7 +4389,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="47" t="s">
         <v>150</v>
       </c>
       <c r="B17">
@@ -4369,7 +4409,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="47" t="s">
         <v>151</v>
       </c>
       <c r="B18">
@@ -4389,7 +4429,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="47" t="s">
         <v>152</v>
       </c>
       <c r="B19">
@@ -4409,7 +4449,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="47" t="s">
         <v>153</v>
       </c>
       <c r="B20">
@@ -4429,7 +4469,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="47" t="s">
         <v>154</v>
       </c>
       <c r="B21">
@@ -4449,7 +4489,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="47" t="s">
         <v>155</v>
       </c>
       <c r="B22">
@@ -4469,7 +4509,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="47" t="s">
         <v>156</v>
       </c>
       <c r="B23">
@@ -4489,7 +4529,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="47" t="s">
         <v>157</v>
       </c>
       <c r="B24">
@@ -4509,7 +4549,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="47" t="s">
         <v>158</v>
       </c>
       <c r="B25">
@@ -4529,7 +4569,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="47" t="s">
         <v>159</v>
       </c>
       <c r="B26">
@@ -4549,7 +4589,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="47" t="s">
         <v>160</v>
       </c>
       <c r="B27">
@@ -4569,7 +4609,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="47" t="s">
         <v>161</v>
       </c>
       <c r="B28">
@@ -4589,7 +4629,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="47" t="s">
         <v>162</v>
       </c>
       <c r="B29">
@@ -4609,7 +4649,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="47" t="s">
         <v>163</v>
       </c>
       <c r="B30">
@@ -4629,7 +4669,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="47" t="s">
         <v>164</v>
       </c>
       <c r="B31">
@@ -4649,7 +4689,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="47" t="s">
         <v>165</v>
       </c>
       <c r="B32">
@@ -4669,7 +4709,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="47" t="s">
         <v>166</v>
       </c>
       <c r="B33">
@@ -4706,27 +4746,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="49" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="49" t="s">
         <v>135</v>
       </c>
       <c r="B2">
@@ -4746,7 +4786,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="49" t="s">
         <v>136</v>
       </c>
       <c r="B3">
@@ -4766,7 +4806,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="49" t="s">
         <v>137</v>
       </c>
       <c r="B4">
@@ -4786,7 +4826,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="49" t="s">
         <v>138</v>
       </c>
       <c r="B5">
@@ -4806,7 +4846,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="49" t="s">
         <v>139</v>
       </c>
       <c r="B6">
@@ -4826,7 +4866,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="49" t="s">
         <v>140</v>
       </c>
       <c r="B7">
@@ -4846,7 +4886,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="49" t="s">
         <v>141</v>
       </c>
       <c r="B8">
@@ -4866,7 +4906,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="49" t="s">
         <v>142</v>
       </c>
       <c r="B9">
@@ -4886,7 +4926,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="49" t="s">
         <v>143</v>
       </c>
       <c r="B10">
@@ -4906,7 +4946,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="49" t="s">
         <v>144</v>
       </c>
       <c r="B11">
@@ -4926,7 +4966,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="49" t="s">
         <v>145</v>
       </c>
       <c r="B12">
@@ -4946,7 +4986,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="49" t="s">
         <v>146</v>
       </c>
       <c r="B13">
@@ -4966,7 +5006,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="49" t="s">
         <v>147</v>
       </c>
       <c r="B14">
@@ -4986,7 +5026,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="49" t="s">
         <v>148</v>
       </c>
       <c r="B15">
@@ -5006,7 +5046,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="49" t="s">
         <v>149</v>
       </c>
       <c r="B16">
@@ -5026,7 +5066,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="49" t="s">
         <v>150</v>
       </c>
       <c r="B17">
@@ -5046,7 +5086,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="49" t="s">
         <v>151</v>
       </c>
       <c r="B18">
@@ -5066,7 +5106,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="49" t="s">
         <v>152</v>
       </c>
       <c r="B19">
@@ -5086,7 +5126,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="49" t="s">
         <v>153</v>
       </c>
       <c r="B20">
@@ -5106,7 +5146,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="49" t="s">
         <v>154</v>
       </c>
       <c r="B21">
@@ -5126,7 +5166,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="49" t="s">
         <v>155</v>
       </c>
       <c r="B22">
@@ -5146,7 +5186,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="49" t="s">
         <v>156</v>
       </c>
       <c r="B23">
@@ -5166,7 +5206,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="49" t="s">
         <v>157</v>
       </c>
       <c r="B24">
@@ -5186,7 +5226,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="49" t="s">
         <v>158</v>
       </c>
       <c r="B25">
@@ -5206,7 +5246,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="49" t="s">
         <v>159</v>
       </c>
       <c r="B26">
@@ -5226,7 +5266,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="49" t="s">
         <v>160</v>
       </c>
       <c r="B27">
@@ -5246,7 +5286,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="49" t="s">
         <v>161</v>
       </c>
       <c r="B28">
@@ -5266,7 +5306,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="49" t="s">
         <v>162</v>
       </c>
       <c r="B29">
@@ -5286,7 +5326,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="49" t="s">
         <v>163</v>
       </c>
       <c r="B30">
@@ -5306,7 +5346,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="49" t="s">
         <v>164</v>
       </c>
       <c r="B31">
@@ -5326,7 +5366,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="49" t="s">
         <v>165</v>
       </c>
       <c r="B32">
@@ -5346,7 +5386,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="49" t="s">
         <v>166</v>
       </c>
       <c r="B33">
@@ -6060,27 +6100,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="31" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -6100,7 +6140,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -6120,7 +6160,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -6140,7 +6180,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -6160,7 +6200,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -6180,7 +6220,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -6200,7 +6240,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -6220,7 +6260,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -6240,7 +6280,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -6260,7 +6300,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -6280,7 +6320,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -6300,7 +6340,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -6320,7 +6360,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -6340,7 +6380,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -6360,7 +6400,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -6380,7 +6420,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -6400,7 +6440,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -6420,7 +6460,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -6440,7 +6480,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -6460,7 +6500,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -6480,7 +6520,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -6500,7 +6540,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -6520,7 +6560,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -6540,7 +6580,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -6560,7 +6600,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -6580,7 +6620,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -6600,7 +6640,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -6620,7 +6660,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -6640,7 +6680,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -6660,7 +6700,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -6680,7 +6720,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -6700,7 +6740,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -6737,27 +6777,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -6777,7 +6817,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -6797,7 +6837,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -6817,7 +6857,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -6837,7 +6877,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -6857,7 +6897,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -6877,7 +6917,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -6897,7 +6937,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -6917,7 +6957,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -6937,7 +6977,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -6957,7 +6997,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -6977,7 +7017,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -6997,7 +7037,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -7017,7 +7057,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -7037,7 +7077,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -7057,7 +7097,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -7077,7 +7117,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -7097,7 +7137,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -7117,7 +7157,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -7137,7 +7177,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -7157,7 +7197,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -7177,7 +7217,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -7197,7 +7237,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -7217,7 +7257,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -7237,7 +7277,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -7257,7 +7297,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -7277,7 +7317,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="33" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -7297,7 +7337,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -7317,7 +7357,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -7337,7 +7377,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -7357,7 +7397,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -7377,7 +7417,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -8111,27 +8151,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B2">
@@ -8151,7 +8191,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B3">
@@ -8171,7 +8211,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B4">
@@ -8191,7 +8231,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="35" t="s">
         <v>41</v>
       </c>
       <c r="B5">
@@ -8211,7 +8251,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="35" t="s">
         <v>42</v>
       </c>
       <c r="B6">
@@ -8231,7 +8271,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="35" t="s">
         <v>43</v>
       </c>
       <c r="B7">
@@ -8251,7 +8291,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="35" t="s">
         <v>44</v>
       </c>
       <c r="B8">
@@ -8271,7 +8311,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="35" t="s">
         <v>45</v>
       </c>
       <c r="B9">
@@ -8291,7 +8331,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="35" t="s">
         <v>46</v>
       </c>
       <c r="B10">
@@ -8311,7 +8351,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="35" t="s">
         <v>47</v>
       </c>
       <c r="B11">
@@ -8331,7 +8371,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="35" t="s">
         <v>48</v>
       </c>
       <c r="B12">
@@ -8351,7 +8391,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="35" t="s">
         <v>49</v>
       </c>
       <c r="B13">
@@ -8371,7 +8411,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="35" t="s">
         <v>50</v>
       </c>
       <c r="B14">
@@ -8391,7 +8431,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="35" t="s">
         <v>51</v>
       </c>
       <c r="B15">
@@ -8411,7 +8451,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="35" t="s">
         <v>52</v>
       </c>
       <c r="B16">
@@ -8431,7 +8471,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="35" t="s">
         <v>53</v>
       </c>
       <c r="B17">
@@ -8451,7 +8491,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="35" t="s">
         <v>54</v>
       </c>
       <c r="B18">
@@ -8471,7 +8511,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="35" t="s">
         <v>55</v>
       </c>
       <c r="B19">
@@ -8491,7 +8531,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="35" t="s">
         <v>56</v>
       </c>
       <c r="B20">
@@ -8511,7 +8551,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="35" t="s">
         <v>57</v>
       </c>
       <c r="B21">
@@ -8531,7 +8571,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="35" t="s">
         <v>58</v>
       </c>
       <c r="B22">
@@ -8551,7 +8591,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="35" t="s">
         <v>59</v>
       </c>
       <c r="B23">
@@ -8571,7 +8611,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="35" t="s">
         <v>60</v>
       </c>
       <c r="B24">
@@ -8591,7 +8631,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B25">
@@ -8611,7 +8651,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="35" t="s">
         <v>62</v>
       </c>
       <c r="B26">
@@ -8631,7 +8671,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="35" t="s">
         <v>63</v>
       </c>
       <c r="B27">
@@ -8651,7 +8691,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="35" t="s">
         <v>64</v>
       </c>
       <c r="B28">
@@ -8671,7 +8711,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="35" t="s">
         <v>65</v>
       </c>
       <c r="B29">
@@ -8691,7 +8731,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="35" t="s">
         <v>66</v>
       </c>
       <c r="B30">
@@ -8711,7 +8751,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="35" t="s">
         <v>67</v>
       </c>
       <c r="B31">
@@ -8731,7 +8771,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="35" t="s">
         <v>68</v>
       </c>
       <c r="B32">
@@ -8751,7 +8791,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="35" t="s">
         <v>69</v>
       </c>
       <c r="B33">
@@ -8771,7 +8811,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="35" t="s">
         <v>70</v>
       </c>
       <c r="B34">
@@ -8808,27 +8848,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="37" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="37" t="s">
         <v>38</v>
       </c>
       <c r="B2">
@@ -8848,7 +8888,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="37" t="s">
         <v>39</v>
       </c>
       <c r="B3">
@@ -8868,7 +8908,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="37" t="s">
         <v>40</v>
       </c>
       <c r="B4">
@@ -8888,7 +8928,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="37" t="s">
         <v>41</v>
       </c>
       <c r="B5">
@@ -8908,7 +8948,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="37" t="s">
         <v>42</v>
       </c>
       <c r="B6">
@@ -8928,7 +8968,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B7">
@@ -8948,7 +8988,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="37" t="s">
         <v>44</v>
       </c>
       <c r="B8">
@@ -8968,7 +9008,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="37" t="s">
         <v>45</v>
       </c>
       <c r="B9">
@@ -8988,7 +9028,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="37" t="s">
         <v>46</v>
       </c>
       <c r="B10">
@@ -9008,7 +9048,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="37" t="s">
         <v>47</v>
       </c>
       <c r="B11">
@@ -9028,7 +9068,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="37" t="s">
         <v>48</v>
       </c>
       <c r="B12">
@@ -9048,7 +9088,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="37" t="s">
         <v>49</v>
       </c>
       <c r="B13">
@@ -9068,7 +9108,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B14">
@@ -9088,7 +9128,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="37" t="s">
         <v>51</v>
       </c>
       <c r="B15">
@@ -9108,7 +9148,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="37" t="s">
         <v>52</v>
       </c>
       <c r="B16">
@@ -9128,7 +9168,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="37" t="s">
         <v>53</v>
       </c>
       <c r="B17">
@@ -9148,7 +9188,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="37" t="s">
         <v>54</v>
       </c>
       <c r="B18">
@@ -9168,7 +9208,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="37" t="s">
         <v>55</v>
       </c>
       <c r="B19">
@@ -9188,7 +9228,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="37" t="s">
         <v>56</v>
       </c>
       <c r="B20">
@@ -9208,7 +9248,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="37" t="s">
         <v>57</v>
       </c>
       <c r="B21">
@@ -9228,7 +9268,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="37" t="s">
         <v>58</v>
       </c>
       <c r="B22">
@@ -9248,7 +9288,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="37" t="s">
         <v>59</v>
       </c>
       <c r="B23">
@@ -9268,7 +9308,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="37" t="s">
         <v>60</v>
       </c>
       <c r="B24">
@@ -9288,7 +9328,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B25">
@@ -9308,7 +9348,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="37" t="s">
         <v>62</v>
       </c>
       <c r="B26">
@@ -9328,7 +9368,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="37" t="s">
         <v>63</v>
       </c>
       <c r="B27">
@@ -9348,7 +9388,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="37" t="s">
         <v>64</v>
       </c>
       <c r="B28">
@@ -9368,7 +9408,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="37" t="s">
         <v>65</v>
       </c>
       <c r="B29">
@@ -9388,7 +9428,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="37" t="s">
         <v>66</v>
       </c>
       <c r="B30">
@@ -9408,7 +9448,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="37" t="s">
         <v>67</v>
       </c>
       <c r="B31">
@@ -9428,7 +9468,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="37" t="s">
         <v>68</v>
       </c>
       <c r="B32">
@@ -9448,7 +9488,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="37" t="s">
         <v>69</v>
       </c>
       <c r="B33">
@@ -9468,7 +9508,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="37" t="s">
         <v>70</v>
       </c>
       <c r="B34">
@@ -10182,27 +10222,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="39" t="s">
         <v>71</v>
       </c>
       <c r="B2">
@@ -10222,7 +10262,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="39" t="s">
         <v>72</v>
       </c>
       <c r="B3">
@@ -10242,7 +10282,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="39" t="s">
         <v>73</v>
       </c>
       <c r="B4">
@@ -10262,7 +10302,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="39" t="s">
         <v>74</v>
       </c>
       <c r="B5">
@@ -10282,7 +10322,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="39" t="s">
         <v>75</v>
       </c>
       <c r="B6">
@@ -10302,7 +10342,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="39" t="s">
         <v>76</v>
       </c>
       <c r="B7">
@@ -10322,7 +10362,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="39" t="s">
         <v>77</v>
       </c>
       <c r="B8">
@@ -10342,7 +10382,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="39" t="s">
         <v>78</v>
       </c>
       <c r="B9">
@@ -10362,7 +10402,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="39" t="s">
         <v>79</v>
       </c>
       <c r="B10">
@@ -10382,7 +10422,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="39" t="s">
         <v>80</v>
       </c>
       <c r="B11">
@@ -10402,7 +10442,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="39" t="s">
         <v>81</v>
       </c>
       <c r="B12">
@@ -10422,7 +10462,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="39" t="s">
         <v>82</v>
       </c>
       <c r="B13">
@@ -10442,7 +10482,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="39" t="s">
         <v>83</v>
       </c>
       <c r="B14">
@@ -10462,7 +10502,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="39" t="s">
         <v>84</v>
       </c>
       <c r="B15">
@@ -10482,7 +10522,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="39" t="s">
         <v>85</v>
       </c>
       <c r="B16">
@@ -10502,7 +10542,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="39" t="s">
         <v>86</v>
       </c>
       <c r="B17">
@@ -10522,7 +10562,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="39" t="s">
         <v>87</v>
       </c>
       <c r="B18">
@@ -10542,7 +10582,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="39" t="s">
         <v>88</v>
       </c>
       <c r="B19">
@@ -10562,7 +10602,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="39" t="s">
         <v>89</v>
       </c>
       <c r="B20">
@@ -10582,7 +10622,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="39" t="s">
         <v>90</v>
       </c>
       <c r="B21">
@@ -10602,7 +10642,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="39" t="s">
         <v>91</v>
       </c>
       <c r="B22">
@@ -10622,7 +10662,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="39" t="s">
         <v>92</v>
       </c>
       <c r="B23">
@@ -10642,7 +10682,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="39" t="s">
         <v>93</v>
       </c>
       <c r="B24">
@@ -10662,7 +10702,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="39" t="s">
         <v>94</v>
       </c>
       <c r="B25">
@@ -10682,7 +10722,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="39" t="s">
         <v>95</v>
       </c>
       <c r="B26">
@@ -10702,7 +10742,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="39" t="s">
         <v>96</v>
       </c>
       <c r="B27">
@@ -10722,7 +10762,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="39" t="s">
         <v>97</v>
       </c>
       <c r="B28">
@@ -10742,7 +10782,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="39" t="s">
         <v>98</v>
       </c>
       <c r="B29">
@@ -10762,7 +10802,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="39" t="s">
         <v>99</v>
       </c>
       <c r="B30">
@@ -10782,7 +10822,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="39" t="s">
         <v>100</v>
       </c>
       <c r="B31">
@@ -10802,7 +10842,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="39" t="s">
         <v>101</v>
       </c>
       <c r="B32">
@@ -10822,7 +10862,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="39" t="s">
         <v>102</v>
       </c>
       <c r="B33">
